--- a/data/EDM_DATA.xlsx
+++ b/data/EDM_DATA.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D85"/>
+  <dimension ref="A1:D97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1787,6 +1787,198 @@
         <v>0.009974036213122539</v>
       </c>
     </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2024-12-18 23:46:39</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>-0.1226930397070828</v>
+      </c>
+      <c r="C86" t="n">
+        <v>-0.001828903161391997</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.008975747528043098</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2024-12-18 23:46:40</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>-0.1227613595774164</v>
+      </c>
+      <c r="C87" t="n">
+        <v>-0.002091892289527995</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.01027214166207885</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2024-12-18 23:46:41</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>-0.1216129350903793</v>
+      </c>
+      <c r="C88" t="n">
+        <v>-0.002015566730399995</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.009804759438178507</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2024-12-18 23:46:42</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>-0.1218764545902377</v>
+      </c>
+      <c r="C89" t="n">
+        <v>-0.001896371311469995</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.009244920481144097</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2024-12-18 23:46:43</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>-0.1226051998737967</v>
+      </c>
+      <c r="C90" t="n">
+        <v>-0.001937419075695996</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.009501506120600561</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2024-12-18 23:46:44</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>-0.1231062122562434</v>
+      </c>
+      <c r="C91" t="n">
+        <v>-0.001992385625571996</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.00981100190871818</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2024-12-18 23:46:45</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>-0.1219480277877301</v>
+      </c>
+      <c r="C92" t="n">
+        <v>-0.001787450487037997</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.008719042466500054</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2024-12-18 23:46:46</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>-0.1228491994107026</v>
+      </c>
+      <c r="C93" t="n">
+        <v>-0.001789576265209996</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.008793920458617726</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2024-12-18 23:46:47</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>-0.1248857822120772</v>
+      </c>
+      <c r="C94" t="n">
+        <v>-0.001851679356091995</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.009249936991660167</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2024-12-18 23:46:48</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>-0.1261480731496704</v>
+      </c>
+      <c r="C95" t="n">
+        <v>-0.001939342398803996</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.009785772271463346</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2024-12-18 23:46:49</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>-0.1254323411747464</v>
+      </c>
+      <c r="C96" t="n">
+        <v>-0.002070583894041995</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.01038872741713642</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2024-12-18 23:46:50</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>-0.1250386885885382</v>
+      </c>
+      <c r="C97" t="n">
+        <v>-0.001975176945131996</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0.009878941397984793</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/EDM_DATA.xlsx
+++ b/data/EDM_DATA.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D97"/>
+  <dimension ref="A1:D100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1979,6 +1979,54 @@
         <v>0.009878941397984793</v>
       </c>
     </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2024-12-18 23:55:24</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>-0.1208223765908042</v>
+      </c>
+      <c r="C98" t="n">
+        <v>-0.001971482140213996</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0.009527966303479201</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2024-12-18 23:55:24</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>-0.121821148028539</v>
+      </c>
+      <c r="C99" t="n">
+        <v>-0.001779200443179996</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0.008669769622442898</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2024-12-18 23:55:25</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>-0.1218764545902377</v>
+      </c>
+      <c r="C100" t="n">
+        <v>-0.001841303534061996</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0.008976461862238043</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/EDM_DATA.xlsx
+++ b/data/EDM_DATA.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D100"/>
+  <dimension ref="A1:D103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2027,6 +2027,54 @@
         <v>0.008976461862238043</v>
       </c>
     </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:11:35</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>-0.1191696863941615</v>
+      </c>
+      <c r="C101" t="n">
+        <v>-0.001996384113085996</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0.009516338747149777</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:11:35</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>-0.1176796625554562</v>
+      </c>
+      <c r="C102" t="n">
+        <v>-0.002015617344165995</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0.009487886756095161</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:11:36</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>-0.1178976354750921</v>
+      </c>
+      <c r="C103" t="n">
+        <v>-0.001868179443807995</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0.008810157562725414</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/EDM_DATA.xlsx
+++ b/data/EDM_DATA.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D103"/>
+  <dimension ref="A1:D126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2075,6 +2075,374 @@
         <v>0.008810157562725414</v>
       </c>
     </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:21:50</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>-0.122344933701097</v>
+      </c>
+      <c r="C104" t="n">
+        <v>-0.001671089439003996</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0.008177973064941894</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:21:51</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>-0.1220716542197624</v>
+      </c>
+      <c r="C105" t="n">
+        <v>-0.001715275256721996</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0.008375459521211269</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:21:52</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>-0.1227971461761626</v>
+      </c>
+      <c r="C106" t="n">
+        <v>-0.001740885822317996</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0.008551032431967682</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:21:53</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>-0.1218406679914915</v>
+      </c>
+      <c r="C107" t="n">
+        <v>-0.001723727755643995</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0.008400805647325552</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:21:54</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>-0.1237145844349288</v>
+      </c>
+      <c r="C108" t="n">
+        <v>-0.001837709956675995</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0.009094060944084072</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:21:55</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>-0.123226585361117</v>
+      </c>
+      <c r="C109" t="n">
+        <v>-0.001777530188901996</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0.008761559022187769</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:21:56</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>-0.1221367207629373</v>
+      </c>
+      <c r="C110" t="n">
+        <v>-0.001912517102823994</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.009343542693678245</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:21:57</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>-0.1235291447868803</v>
+      </c>
+      <c r="C111" t="n">
+        <v>-0.001829459912817996</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.009039664738091509</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:21:58</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>-0.1215934151274269</v>
+      </c>
+      <c r="C112" t="n">
+        <v>-0.001819185318319997</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.00884803822416814</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:21:59</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>-0.1233859983918956</v>
+      </c>
+      <c r="C113" t="n">
+        <v>-0.001891816072529995</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0.009336944595317927</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:22:00</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>-0.1244042897925829</v>
+      </c>
+      <c r="C114" t="n">
+        <v>-0.001952046454069995</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0.0097137181104283</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:22:01</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>-0.1233014118857682</v>
+      </c>
+      <c r="C115" t="n">
+        <v>-0.001954273459773996</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0.009638587072040747</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:22:02</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>-0.122039120948175</v>
+      </c>
+      <c r="C116" t="n">
+        <v>-0.001917780934487995</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0.009361771976643377</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:22:03</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>-0.1229988524600049</v>
+      </c>
+      <c r="C117" t="n">
+        <v>-0.001889892749421995</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0.009298185578055557</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:22:04</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>-0.1241440236198832</v>
+      </c>
+      <c r="C118" t="n">
+        <v>-0.001860334310077996</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0.009237975461248075</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:22:05</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>-0.1218666946087615</v>
+      </c>
+      <c r="C119" t="n">
+        <v>-0.001825410811537996</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0.008898271276209298</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:22:06</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>-0.1215608818558394</v>
+      </c>
+      <c r="C120" t="n">
+        <v>-0.001858208531905997</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0.009035418712421505</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:22:07</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>-0.1242351167803281</v>
+      </c>
+      <c r="C121" t="n">
+        <v>-0.001881642705563995</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0.009350644050583818</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:22:08</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>-0.1230671723303385</v>
+      </c>
+      <c r="C122" t="n">
+        <v>-0.001855627229839996</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0.009134671843023497</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:22:09</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>-0.1226312264910666</v>
+      </c>
+      <c r="C123" t="n">
+        <v>-0.001787906010931995</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0.008770124278853634</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:22:10</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>-0.1226051998737967</v>
+      </c>
+      <c r="C124" t="n">
+        <v>-0.001771456536981996</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0.008687591311376853</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:22:11</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>-0.122702799688559</v>
+      </c>
+      <c r="C125" t="n">
+        <v>-0.001768267869723995</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0.008678856728578335</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:22:12</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>-0.122549893312098</v>
+      </c>
+      <c r="C126" t="n">
+        <v>-0.001775201955665996</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0.008702032410971819</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/EDM_DATA.xlsx
+++ b/data/EDM_DATA.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D126"/>
+  <dimension ref="A1:D134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2443,6 +2443,134 @@
         <v>0.008702032410971819</v>
       </c>
     </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:22:13</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>-0.1214307487694896</v>
+      </c>
+      <c r="C127" t="n">
+        <v>-0.001914794722293995</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0.009300598274721067</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:22:14</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>-0.122357947009732</v>
+      </c>
+      <c r="C128" t="n">
+        <v>-0.001832193056181995</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0.008967335235196622</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:22:15</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>-0.1215771484916331</v>
+      </c>
+      <c r="C129" t="n">
+        <v>-0.001779453512009995</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0.008653635354543891</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:22:16</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>-0.1215381085657282</v>
+      </c>
+      <c r="C130" t="n">
+        <v>-0.001856993801521996</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0.009027820570210583</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:22:17</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>-0.1219773077321588</v>
+      </c>
+      <c r="C131" t="n">
+        <v>-0.001865496914209996</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0.009101931647119412</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:22:18</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>-0.1236690378547064</v>
+      </c>
+      <c r="C132" t="n">
+        <v>-0.001842923174573997</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0.009116501433588293</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:22:19</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>-0.1242448767618043</v>
+      </c>
+      <c r="C133" t="n">
+        <v>-0.001668862433299996</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0.008293904294310518</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:22:20</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>-0.1242123434902169</v>
+      </c>
+      <c r="C134" t="n">
+        <v>-0.001706215392607996</v>
+      </c>
+      <c r="D134" t="n">
+        <v>0.008477320496596785</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/EDM_DATA.xlsx
+++ b/data/EDM_DATA.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D134"/>
+  <dimension ref="A1:D139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2571,6 +2571,86 @@
         <v>0.008477320496596785</v>
       </c>
     </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:22:21</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>-0.1216357083804905</v>
+      </c>
+      <c r="C135" t="n">
+        <v>-0.001645023349513995</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0.008003743216823284</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:22:22</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>-0.1225596532935742</v>
+      </c>
+      <c r="C136" t="n">
+        <v>-0.001768774007383996</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0.008671213163986736</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:22:23</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>-0.1225921865651617</v>
+      </c>
+      <c r="C137" t="n">
+        <v>-0.001903052328581995</v>
+      </c>
+      <c r="D137" t="n">
+        <v>0.009331973844351572</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:22:24</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>-0.1232038120710058</v>
+      </c>
+      <c r="C138" t="n">
+        <v>-0.001859575103587996</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0.009164269663775065</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:22:25</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>-0.1235258914597216</v>
+      </c>
+      <c r="C139" t="n">
+        <v>-0.001935394525055996</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0.009562853361352257</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/EDM_DATA.xlsx
+++ b/data/EDM_DATA.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D139"/>
+  <dimension ref="A1:D148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2651,6 +2651,150 @@
         <v>0.009562853361352257</v>
       </c>
     </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:23:26</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>-0.1208256299179629</v>
+      </c>
+      <c r="C140" t="n">
+        <v>-0.001662890008911996</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0.008036789312443157</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:23:27</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>-0.1211997625412187</v>
+      </c>
+      <c r="C141" t="n">
+        <v>-0.001651754980391996</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0.008007692455991408</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:23:28</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>-0.1199895248381654</v>
+      </c>
+      <c r="C142" t="n">
+        <v>-0.001755968724585996</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0.008427914115750119</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:23:29</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>-0.1204580039490247</v>
+      </c>
+      <c r="C143" t="n">
+        <v>-0.001647857720409997</v>
+      </c>
+      <c r="D143" t="n">
+        <v>0.00793990607170313</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:23:30</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>-0.1185385409253649</v>
+      </c>
+      <c r="C144" t="n">
+        <v>-0.001844694656383996</v>
+      </c>
+      <c r="D144" t="n">
+        <v>0.008746696520823053</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:23:31</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>-0.120441737313231</v>
+      </c>
+      <c r="C145" t="n">
+        <v>-0.001744783082299996</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0.008405788226677825</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:23:32</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>-0.1192868061718764</v>
+      </c>
+      <c r="C146" t="n">
+        <v>-0.001651552525327996</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0.007880337038858943</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:23:33</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>-0.1192477662459714</v>
+      </c>
+      <c r="C147" t="n">
+        <v>-0.001751109803049995</v>
+      </c>
+      <c r="D147" t="n">
+        <v>0.008352637298605397</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:23:34</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>-0.1186361407401273</v>
+      </c>
+      <c r="C148" t="n">
+        <v>-0.001675138540283995</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0.007949278864973737</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/EDM_DATA.xlsx
+++ b/data/EDM_DATA.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D148"/>
+  <dimension ref="A1:D167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2795,6 +2795,310 @@
         <v>0.007949278864973737</v>
       </c>
     </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:23:35</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>-0.1193290994249401</v>
+      </c>
+      <c r="C149" t="n">
+        <v>-0.001663952897997995</v>
+      </c>
+      <c r="D149" t="n">
+        <v>0.007942320032144798</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:23:36</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>-0.1193290994249401</v>
+      </c>
+      <c r="C150" t="n">
+        <v>-0.001647554037813997</v>
+      </c>
+      <c r="D150" t="n">
+        <v>0.007864045583450715</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:23:37</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>-0.1185873408327461</v>
+      </c>
+      <c r="C151" t="n">
+        <v>-0.001822373985577996</v>
+      </c>
+      <c r="D151" t="n">
+        <v>0.008644419398098709</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:23:38</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>-0.1200122981282766</v>
+      </c>
+      <c r="C152" t="n">
+        <v>-0.001763510175719995</v>
+      </c>
+      <c r="D152" t="n">
+        <v>0.008465716358430303</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:23:39</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>-0.1186621673573973</v>
+      </c>
+      <c r="C153" t="n">
+        <v>-0.001687032775293996</v>
+      </c>
+      <c r="D153" t="n">
+        <v>0.008007478620774019</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:23:40</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>-0.1185710741969524</v>
+      </c>
+      <c r="C154" t="n">
+        <v>-0.001803849347221996</v>
+      </c>
+      <c r="D154" t="n">
+        <v>0.008555374191583337</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:23:41</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>-0.1197292586654657</v>
+      </c>
+      <c r="C155" t="n">
+        <v>-0.001715629553083995</v>
+      </c>
+      <c r="D155" t="n">
+        <v>0.008216442181412443</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:23:42</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>-0.1181025950860931</v>
+      </c>
+      <c r="C156" t="n">
+        <v>-0.001595371245067996</v>
+      </c>
+      <c r="D156" t="n">
+        <v>0.007536699366730467</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:23:43</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>-0.1183986478575389</v>
+      </c>
+      <c r="C157" t="n">
+        <v>-0.001851780583623997</v>
+      </c>
+      <c r="D157" t="n">
+        <v>0.008769932689197022</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:23:44</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>-0.1177544890801073</v>
+      </c>
+      <c r="C158" t="n">
+        <v>-0.001745997812683996</v>
+      </c>
+      <c r="D158" t="n">
+        <v>0.008223963214703553</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:23:45</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>-0.1185515542339999</v>
+      </c>
+      <c r="C159" t="n">
+        <v>-0.001770899785555995</v>
+      </c>
+      <c r="D159" t="n">
+        <v>0.008397716878812814</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:23:46</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>-0.1193160861163051</v>
+      </c>
+      <c r="C160" t="n">
+        <v>-0.001740430298423997</v>
+      </c>
+      <c r="D160" t="n">
+        <v>0.008306453254647364</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:23:47</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>-0.1200936313072452</v>
+      </c>
+      <c r="C161" t="n">
+        <v>-0.001729295269903996</v>
+      </c>
+      <c r="D161" t="n">
+        <v>0.008307093942608545</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:23:48</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>-0.1198854183690855</v>
+      </c>
+      <c r="C162" t="n">
+        <v>-0.001732990074821996</v>
+      </c>
+      <c r="D162" t="n">
+        <v>0.008310409605980314</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:23:49</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>-0.1212127758498536</v>
+      </c>
+      <c r="C163" t="n">
+        <v>-0.001642543274979996</v>
+      </c>
+      <c r="D163" t="n">
+        <v>0.00796388919255339</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:23:50</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>-0.119368139350845</v>
+      </c>
+      <c r="C164" t="n">
+        <v>-0.001559182402377996</v>
+      </c>
+      <c r="D164" t="n">
+        <v>0.007444668091217676</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:23:51</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>-0.1202985909182462</v>
+      </c>
+      <c r="C165" t="n">
+        <v>-0.001697256756025995</v>
+      </c>
+      <c r="D165" t="n">
+        <v>0.008167103847056031</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:23:52</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>-0.1194136859310675</v>
+      </c>
+      <c r="C166" t="n">
+        <v>-0.001716743055935996</v>
+      </c>
+      <c r="D166" t="n">
+        <v>0.008200104644235281</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:23:53</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>-0.1193030728076701</v>
+      </c>
+      <c r="C167" t="n">
+        <v>-0.001577302130605996</v>
+      </c>
+      <c r="D167" t="n">
+        <v>0.007527079637095211</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/EDM_DATA.xlsx
+++ b/data/EDM_DATA.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D167"/>
+  <dimension ref="A1:D190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3099,6 +3099,374 @@
         <v>0.007527079637095211</v>
       </c>
     </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:25:39</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>-0.1215088286212995</v>
+      </c>
+      <c r="C168" t="n">
+        <v>-0.001613490973295996</v>
+      </c>
+      <c r="D168" t="n">
+        <v>0.007842135926249475</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:25:40</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>-0.119215232974384</v>
+      </c>
+      <c r="C169" t="n">
+        <v>-0.001569102700513996</v>
+      </c>
+      <c r="D169" t="n">
+        <v>0.007482437760100442</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:25:41</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>-0.121131442670885</v>
+      </c>
+      <c r="C170" t="n">
+        <v>-0.001508113112483996</v>
+      </c>
+      <c r="D170" t="n">
+        <v>0.007307196681042603</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:25:42</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>-0.1202009911034838</v>
+      </c>
+      <c r="C171" t="n">
+        <v>-0.001631661315289996</v>
+      </c>
+      <c r="D171" t="n">
+        <v>0.007845092289722863</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:25:43</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>-0.122383973627002</v>
+      </c>
+      <c r="C172" t="n">
+        <v>-0.001676707567029996</v>
+      </c>
+      <c r="D172" t="n">
+        <v>0.008208085386543749</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:25:44</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>-0.1215543752015219</v>
+      </c>
+      <c r="C173" t="n">
+        <v>-0.001706974599097996</v>
+      </c>
+      <c r="D173" t="n">
+        <v>0.008299609235129008</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:25:45</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>-0.1221822673431598</v>
+      </c>
+      <c r="C174" t="n">
+        <v>-0.001629737992181996</v>
+      </c>
+      <c r="D174" t="n">
+        <v>0.007965003322403403</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:25:46</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>-0.1204970438749297</v>
+      </c>
+      <c r="C175" t="n">
+        <v>-0.001494548623195996</v>
+      </c>
+      <c r="D175" t="n">
+        <v>0.007203547640898546</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:25:47</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>-0.1224067469171132</v>
+      </c>
+      <c r="C176" t="n">
+        <v>-0.001583831306419995</v>
+      </c>
+      <c r="D176" t="n">
+        <v>0.007754865515374125</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:25:48</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>-0.1227906395218452</v>
+      </c>
+      <c r="C177" t="n">
+        <v>-0.001602102875945995</v>
+      </c>
+      <c r="D177" t="n">
+        <v>0.007868929468687844</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:25:49</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>-0.12288173268229</v>
+      </c>
+      <c r="C178" t="n">
+        <v>-0.001424549784817995</v>
+      </c>
+      <c r="D178" t="n">
+        <v>0.007002045834024747</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:25:50</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>-0.1212030158683774</v>
+      </c>
+      <c r="C179" t="n">
+        <v>-0.001454867430651996</v>
+      </c>
+      <c r="D179" t="n">
+        <v>0.007053372811347972</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:25:51</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>-0.1230118657686398</v>
+      </c>
+      <c r="C180" t="n">
+        <v>-0.001641682840957996</v>
+      </c>
+      <c r="D180" t="n">
+        <v>0.008077858770664172</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:25:52</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>-0.1218374146643328</v>
+      </c>
+      <c r="C181" t="n">
+        <v>-0.001663396146571995</v>
+      </c>
+      <c r="D181" t="n">
+        <v>0.008106555442437817</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:25:53</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>-0.1192933128261939</v>
+      </c>
+      <c r="C182" t="n">
+        <v>-0.001750198755261997</v>
+      </c>
+      <c r="D182" t="n">
+        <v>0.00835148030477938</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:25:54</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>-0.1199146983135142</v>
+      </c>
+      <c r="C183" t="n">
+        <v>-0.001665926834871996</v>
+      </c>
+      <c r="D183" t="n">
+        <v>0.007990764552642519</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:25:55</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>-0.1204384839860723</v>
+      </c>
+      <c r="C184" t="n">
+        <v>-0.001541821880639996</v>
+      </c>
+      <c r="D184" t="n">
+        <v>0.007427787595233438</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:25:56</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>-0.1213038690102985</v>
+      </c>
+      <c r="C185" t="n">
+        <v>-0.001496117649941997</v>
+      </c>
+      <c r="D185" t="n">
+        <v>0.007259394377302386</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:25:57</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>-0.1211607226153137</v>
+      </c>
+      <c r="C186" t="n">
+        <v>-0.001734154191439997</v>
+      </c>
+      <c r="D186" t="n">
+        <v>0.008404454998449804</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:25:58</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>-0.1224718134602881</v>
+      </c>
+      <c r="C187" t="n">
+        <v>-0.001509580911697995</v>
+      </c>
+      <c r="D187" t="n">
+        <v>0.007395244472827541</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:25:59</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>-0.1219642944235238</v>
+      </c>
+      <c r="C188" t="n">
+        <v>-0.001570165589599995</v>
+      </c>
+      <c r="D188" t="n">
+        <v>0.007660165530546389</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:26:00</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>-0.1222082939604297</v>
+      </c>
+      <c r="C189" t="n">
+        <v>-0.001655551012841996</v>
+      </c>
+      <c r="D189" t="n">
+        <v>0.008092882593755272</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:26:01</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>-0.1216584816706018</v>
+      </c>
+      <c r="C190" t="n">
+        <v>-0.001660612389441996</v>
+      </c>
+      <c r="D190" t="n">
+        <v>0.008081103277716131</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/EDM_DATA.xlsx
+++ b/data/EDM_DATA.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D190"/>
+  <dimension ref="A1:D199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3467,6 +3467,150 @@
         <v>0.008081103277716131</v>
       </c>
     </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:26:37</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>-0.1194592325112899</v>
+      </c>
+      <c r="C191" t="n">
+        <v>-0.001759815370801996</v>
+      </c>
+      <c r="D191" t="n">
+        <v>0.008409047742303097</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:26:38</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>-0.1195568323260522</v>
+      </c>
+      <c r="C192" t="n">
+        <v>-0.001750704892921996</v>
+      </c>
+      <c r="D192" t="n">
+        <v>0.008372349253418971</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:26:39</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>-0.1189354468387319</v>
+      </c>
+      <c r="C193" t="n">
+        <v>-0.001725499237453996</v>
+      </c>
+      <c r="D193" t="n">
+        <v>0.008208920913059286</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:26:40</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>-0.118844353678287</v>
+      </c>
+      <c r="C194" t="n">
+        <v>-0.001878960175965996</v>
+      </c>
+      <c r="D194" t="n">
+        <v>0.008932152307996766</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:26:41</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>-0.1191013665238279</v>
+      </c>
+      <c r="C195" t="n">
+        <v>-0.001566875694809995</v>
+      </c>
+      <c r="D195" t="n">
+        <v>0.007464681456993709</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:26:42</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>-0.1177219558085199</v>
+      </c>
+      <c r="C196" t="n">
+        <v>-0.001607417321375996</v>
+      </c>
+      <c r="D196" t="n">
+        <v>0.007569132434914971</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:26:43</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>-0.1183628612587927</v>
+      </c>
+      <c r="C197" t="n">
+        <v>-0.001585957084591996</v>
+      </c>
+      <c r="D197" t="n">
+        <v>0.007508736734638471</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:26:44</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>-0.1178260622775997</v>
+      </c>
+      <c r="C198" t="n">
+        <v>-0.001591676440149997</v>
+      </c>
+      <c r="D198" t="n">
+        <v>0.00750163869451607</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:26:45</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>-0.1186686740117148</v>
+      </c>
+      <c r="C199" t="n">
+        <v>-0.001540607150255995</v>
+      </c>
+      <c r="D199" t="n">
+        <v>0.00731287230775382</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/EDM_DATA.xlsx
+++ b/data/EDM_DATA.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D199"/>
+  <dimension ref="A1:D203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3611,6 +3611,70 @@
         <v>0.00731287230775382</v>
       </c>
     </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:28:04</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>-0.120646696924232</v>
+      </c>
+      <c r="C200" t="n">
+        <v>-0.001781832359011997</v>
+      </c>
+      <c r="D200" t="n">
+        <v>0.008598887543500385</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:28:05</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>-0.1202628043195</v>
+      </c>
+      <c r="C201" t="n">
+        <v>-0.001749642003835996</v>
+      </c>
+      <c r="D201" t="n">
+        <v>0.008416674157460247</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:28:06</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>-0.1203181108811986</v>
+      </c>
+      <c r="C202" t="n">
+        <v>-0.001944100092807996</v>
+      </c>
+      <c r="D202" t="n">
+        <v>0.009356418021224843</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:28:07</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>-0.1209069630969316</v>
+      </c>
+      <c r="C203" t="n">
+        <v>-0.001833812696693996</v>
+      </c>
+      <c r="D203" t="n">
+        <v>0.008868828961834625</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/EDM_DATA.xlsx
+++ b/data/EDM_DATA.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D203"/>
+  <dimension ref="A1:D248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3675,6 +3675,726 @@
         <v>0.008868828961834625</v>
       </c>
     </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:28:08</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>-0.1215316019114107</v>
+      </c>
+      <c r="C204" t="n">
+        <v>-0.001756474862245996</v>
+      </c>
+      <c r="D204" t="n">
+        <v>0.008538688149035216</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:28:09</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>-0.1207703233562643</v>
+      </c>
+      <c r="C205" t="n">
+        <v>-0.001735773831951996</v>
+      </c>
+      <c r="D205" t="n">
+        <v>0.00838519867832738</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:28:10</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>-0.1226051998737967</v>
+      </c>
+      <c r="C206" t="n">
+        <v>-0.001938380737249996</v>
+      </c>
+      <c r="D206" t="n">
+        <v>0.009506222308882123</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:28:11</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>-0.121655228343443</v>
+      </c>
+      <c r="C207" t="n">
+        <v>-0.001829814209179995</v>
+      </c>
+      <c r="D207" t="n">
+        <v>0.008904258617754757</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:28:12</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>-0.1236755445090239</v>
+      </c>
+      <c r="C208" t="n">
+        <v>-0.001855829684903995</v>
+      </c>
+      <c r="D208" t="n">
+        <v>0.009180829871860474</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:28:13</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>-0.1240561837865971</v>
+      </c>
+      <c r="C209" t="n">
+        <v>-0.001928612280411996</v>
+      </c>
+      <c r="D209" t="n">
+        <v>0.009570251180475149</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:28:14</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>-0.1220326142938575</v>
+      </c>
+      <c r="C210" t="n">
+        <v>-0.001890196432017995</v>
+      </c>
+      <c r="D210" t="n">
+        <v>0.009226624485123102</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:28:15</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>-0.1194722458199249</v>
+      </c>
+      <c r="C211" t="n">
+        <v>-0.001715376484253996</v>
+      </c>
+      <c r="D211" t="n">
+        <v>0.008197595240020474</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:28:16</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>-0.1217007749236654</v>
+      </c>
+      <c r="C212" t="n">
+        <v>-0.001633280955801996</v>
+      </c>
+      <c r="D212" t="n">
+        <v>0.007950862319566716</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:28:17</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>-0.1229728258427349</v>
+      </c>
+      <c r="C213" t="n">
+        <v>-0.001750451824091995</v>
+      </c>
+      <c r="D213" t="n">
+        <v>0.008610320292406503</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:28:18</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>-0.122357947009732</v>
+      </c>
+      <c r="C214" t="n">
+        <v>-0.001991120281421995</v>
+      </c>
+      <c r="D214" t="n">
+        <v>0.009745175595369408</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:28:19</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>-0.124658049310965</v>
+      </c>
+      <c r="C215" t="n">
+        <v>-0.002034850575245996</v>
+      </c>
+      <c r="D215" t="n">
+        <v>0.01014642013397843</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:28:20</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>-0.1213884555164259</v>
+      </c>
+      <c r="C216" t="n">
+        <v>-0.001868533740169996</v>
+      </c>
+      <c r="D216" t="n">
+        <v>0.009072736991982659</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:28:21</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>-0.1213949621707434</v>
+      </c>
+      <c r="C217" t="n">
+        <v>-0.001837608729143996</v>
+      </c>
+      <c r="D217" t="n">
+        <v>0.008923057686362527</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:28:22</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>-0.1206239236341207</v>
+      </c>
+      <c r="C218" t="n">
+        <v>-0.001856993801521996</v>
+      </c>
+      <c r="D218" t="n">
+        <v>0.008959915140152992</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:28:23</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>-0.1195958722519572</v>
+      </c>
+      <c r="C219" t="n">
+        <v>-0.001927498777559996</v>
+      </c>
+      <c r="D219" t="n">
+        <v>0.009220835902674756</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:28:24</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>-0.1201164045973564</v>
+      </c>
+      <c r="C220" t="n">
+        <v>-0.001845099566511996</v>
+      </c>
+      <c r="D220" t="n">
+        <v>0.008865069042142473</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:28:25</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>-0.1193876593137975</v>
+      </c>
+      <c r="C221" t="n">
+        <v>-0.002009341237181995</v>
+      </c>
+      <c r="D221" t="n">
+        <v>0.009595621882793934</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:28:26</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>-0.1216877616150305</v>
+      </c>
+      <c r="C222" t="n">
+        <v>-0.001776517913581995</v>
+      </c>
+      <c r="D222" t="n">
+        <v>0.008647219534911887</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:28:27</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>-0.1218536813001265</v>
+      </c>
+      <c r="C223" t="n">
+        <v>-0.001812048777313996</v>
+      </c>
+      <c r="D223" t="n">
+        <v>0.00883219256844414</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:28:28</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>-0.122410000244272</v>
+      </c>
+      <c r="C224" t="n">
+        <v>-0.001748781569813996</v>
+      </c>
+      <c r="D224" t="n">
+        <v>0.008562734095524379</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:28:29</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>-0.1225206133676693</v>
+      </c>
+      <c r="C225" t="n">
+        <v>-0.001802887685667996</v>
+      </c>
+      <c r="D225" t="n">
+        <v>0.008835636203242426</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:28:30</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>-0.120952509677154</v>
+      </c>
+      <c r="C226" t="n">
+        <v>-0.002048769360895997</v>
+      </c>
+      <c r="D226" t="n">
+        <v>0.009912151838001187</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:28:31</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>-0.1210663761277101</v>
+      </c>
+      <c r="C227" t="n">
+        <v>-0.001813061052633996</v>
+      </c>
+      <c r="D227" t="n">
+        <v>0.008780029253627572</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:28:32</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>-0.1201164045973564</v>
+      </c>
+      <c r="C228" t="n">
+        <v>-0.001892777734083995</v>
+      </c>
+      <c r="D228" t="n">
+        <v>0.009094146244804029</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:28:33</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>-0.1186686740117148</v>
+      </c>
+      <c r="C229" t="n">
+        <v>-0.001811390798355996</v>
+      </c>
+      <c r="D229" t="n">
+        <v>0.008598213766317099</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:28:34</t>
+        </is>
+      </c>
+      <c r="B230" t="n">
+        <v>-0.1205328304736759</v>
+      </c>
+      <c r="C230" t="n">
+        <v>-0.001889133542931996</v>
+      </c>
+      <c r="D230" t="n">
+        <v>0.009108104522894275</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:28:35</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>-0.1200350714183878</v>
+      </c>
+      <c r="C231" t="n">
+        <v>-0.001836039702397995</v>
+      </c>
+      <c r="D231" t="n">
+        <v>0.008815566272173555</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:28:36</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>-0.1209492563499953</v>
+      </c>
+      <c r="C232" t="n">
+        <v>-0.001742303007765996</v>
+      </c>
+      <c r="D232" t="n">
+        <v>0.008429210125026289</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:28:37</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>-0.1187304872277309</v>
+      </c>
+      <c r="C233" t="n">
+        <v>-0.001708543625843996</v>
+      </c>
+      <c r="D233" t="n">
+        <v>0.008114248685851665</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:28:38</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>-0.1189321935115731</v>
+      </c>
+      <c r="C234" t="n">
+        <v>-0.001730712455351995</v>
+      </c>
+      <c r="D234" t="n">
+        <v>0.008233497146112535</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:28:39</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>-0.1187239805734134</v>
+      </c>
+      <c r="C235" t="n">
+        <v>-0.001820804958831995</v>
+      </c>
+      <c r="D235" t="n">
+        <v>0.008646928502413788</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:28:40</t>
+        </is>
+      </c>
+      <c r="B236" t="n">
+        <v>-0.1182880347341415</v>
+      </c>
+      <c r="C236" t="n">
+        <v>-0.001860891061503996</v>
+      </c>
+      <c r="D236" t="n">
+        <v>0.008804845860785527</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:28:41</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>-0.1185092609809362</v>
+      </c>
+      <c r="C237" t="n">
+        <v>-0.001868331285105996</v>
+      </c>
+      <c r="D237" t="n">
+        <v>0.008856582394618978</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:28:42</t>
+        </is>
+      </c>
+      <c r="B238" t="n">
+        <v>-0.1202432843565475</v>
+      </c>
+      <c r="C238" t="n">
+        <v>-0.001830978325797996</v>
+      </c>
+      <c r="D238" t="n">
+        <v>0.008806513899184147</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:28:43</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>-0.1196251521963859</v>
+      </c>
+      <c r="C239" t="n">
+        <v>-0.001718565151511995</v>
+      </c>
+      <c r="D239" t="n">
+        <v>0.008223344712361099</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:28:44</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>-0.1193356060792576</v>
+      </c>
+      <c r="C240" t="n">
+        <v>-0.001537266641699995</v>
+      </c>
+      <c r="D240" t="n">
+        <v>0.007338025855707753</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:28:45</t>
+        </is>
+      </c>
+      <c r="B241" t="n">
+        <v>-0.1203538974799449</v>
+      </c>
+      <c r="C241" t="n">
+        <v>-0.001620323831705996</v>
+      </c>
+      <c r="D241" t="n">
+        <v>0.007800491533018197</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:28:46</t>
+        </is>
+      </c>
+      <c r="B242" t="n">
+        <v>-0.11852552761673</v>
+      </c>
+      <c r="C242" t="n">
+        <v>-0.001698927010303996</v>
+      </c>
+      <c r="D242" t="n">
+        <v>0.008054648811143789</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:28:47</t>
+        </is>
+      </c>
+      <c r="B243" t="n">
+        <v>-0.1203181108811986</v>
+      </c>
+      <c r="C243" t="n">
+        <v>-0.001665370083445997</v>
+      </c>
+      <c r="D243" t="n">
+        <v>0.00801496729433146</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:28:48</t>
+        </is>
+      </c>
+      <c r="B244" t="n">
+        <v>-0.1208711764981854</v>
+      </c>
+      <c r="C244" t="n">
+        <v>-0.001982161644839995</v>
+      </c>
+      <c r="D244" t="n">
+        <v>0.009583448400855541</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:28:49</t>
+        </is>
+      </c>
+      <c r="B245" t="n">
+        <v>-0.1213754422077909</v>
+      </c>
+      <c r="C245" t="n">
+        <v>-0.001828397023731996</v>
+      </c>
+      <c r="D245" t="n">
+        <v>0.008876899891475193</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:28:50</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>-0.119943978257943</v>
+      </c>
+      <c r="C246" t="n">
+        <v>-0.001981048141987996</v>
+      </c>
+      <c r="D246" t="n">
+        <v>0.009504591810821859</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:28:51</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>-0.1197813119000057</v>
+      </c>
+      <c r="C247" t="n">
+        <v>-0.001961410000779997</v>
+      </c>
+      <c r="D247" t="n">
+        <v>0.009397610522688764</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:28:52</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
+        <v>-0.1197845652271644</v>
+      </c>
+      <c r="C248" t="n">
+        <v>-0.002017641894805995</v>
+      </c>
+      <c r="D248" t="n">
+        <v>0.009667294286137934</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/EDM_DATA.xlsx
+++ b/data/EDM_DATA.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D248"/>
+  <dimension ref="A1:D295"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4395,6 +4395,758 @@
         <v>0.009667294286137934</v>
       </c>
     </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:30:01</t>
+        </is>
+      </c>
+      <c r="B249" t="n">
+        <v>-0.119228246283019</v>
+      </c>
+      <c r="C249" t="n">
+        <v>-0.001977707633431996</v>
+      </c>
+      <c r="D249" t="n">
+        <v>0.009431944511785462</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:30:02</t>
+        </is>
+      </c>
+      <c r="B250" t="n">
+        <v>-0.1203799240972148</v>
+      </c>
+      <c r="C250" t="n">
+        <v>-0.002208202723795996</v>
+      </c>
+      <c r="D250" t="n">
+        <v>0.010632931051273</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:30:03</t>
+        </is>
+      </c>
+      <c r="B251" t="n">
+        <v>-0.1205848837082158</v>
+      </c>
+      <c r="C251" t="n">
+        <v>-0.002008025279265996</v>
+      </c>
+      <c r="D251" t="n">
+        <v>0.009685499791337909</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:30:04</t>
+        </is>
+      </c>
+      <c r="B252" t="n">
+        <v>-0.119712992029672</v>
+      </c>
+      <c r="C252" t="n">
+        <v>-0.002061119119799996</v>
+      </c>
+      <c r="D252" t="n">
+        <v>0.009869709470432862</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:30:05</t>
+        </is>
+      </c>
+      <c r="B253" t="n">
+        <v>-0.1203506441527861</v>
+      </c>
+      <c r="C253" t="n">
+        <v>-0.002076708159727995</v>
+      </c>
+      <c r="D253" t="n">
+        <v>0.009997326589624451</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:30:06</t>
+        </is>
+      </c>
+      <c r="B254" t="n">
+        <v>-0.1196153922149097</v>
+      </c>
+      <c r="C254" t="n">
+        <v>-0.002024120456853995</v>
+      </c>
+      <c r="D254" t="n">
+        <v>0.00968463849347251</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:30:07</t>
+        </is>
+      </c>
+      <c r="B255" t="n">
+        <v>-0.1193616326965275</v>
+      </c>
+      <c r="C255" t="n">
+        <v>-0.001980592618093995</v>
+      </c>
+      <c r="D255" t="n">
+        <v>0.009456270744095569</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:30:08</t>
+        </is>
+      </c>
+      <c r="B256" t="n">
+        <v>-0.1202660576466587</v>
+      </c>
+      <c r="C256" t="n">
+        <v>-0.001892727120317995</v>
+      </c>
+      <c r="D256" t="n">
+        <v>0.009105233158462338</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:30:09</t>
+        </is>
+      </c>
+      <c r="B257" t="n">
+        <v>-0.119752031955577</v>
+      </c>
+      <c r="C257" t="n">
+        <v>-0.002054589943985996</v>
+      </c>
+      <c r="D257" t="n">
+        <v>0.009841652825112724</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:30:10</t>
+        </is>
+      </c>
+      <c r="B258" t="n">
+        <v>-0.1192054729929077</v>
+      </c>
+      <c r="C258" t="n">
+        <v>-0.002058942727861995</v>
+      </c>
+      <c r="D258" t="n">
+        <v>0.009817489669603876</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:30:11</t>
+        </is>
+      </c>
+      <c r="B259" t="n">
+        <v>-0.118691447301826</v>
+      </c>
+      <c r="C259" t="n">
+        <v>-0.002134660921797996</v>
+      </c>
+      <c r="D259" t="n">
+        <v>0.01013463977227416</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:30:12</t>
+        </is>
+      </c>
+      <c r="B260" t="n">
+        <v>-0.118307554697094</v>
+      </c>
+      <c r="C260" t="n">
+        <v>-0.001991980715443996</v>
+      </c>
+      <c r="D260" t="n">
+        <v>0.009426654697917881</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:30:13</t>
+        </is>
+      </c>
+      <c r="B261" t="n">
+        <v>-0.1194885124557186</v>
+      </c>
+      <c r="C261" t="n">
+        <v>-0.002062890601609996</v>
+      </c>
+      <c r="D261" t="n">
+        <v>0.009859669173810433</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:30:14</t>
+        </is>
+      </c>
+      <c r="B262" t="n">
+        <v>-0.1213298956275685</v>
+      </c>
+      <c r="C262" t="n">
+        <v>-0.001953868549645996</v>
+      </c>
+      <c r="D262" t="n">
+        <v>0.009482506687941495</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:30:15</t>
+        </is>
+      </c>
+      <c r="B263" t="n">
+        <v>-0.1202660576466587</v>
+      </c>
+      <c r="C263" t="n">
+        <v>-0.001996789023213996</v>
+      </c>
+      <c r="D263" t="n">
+        <v>0.009605837750962793</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:30:16</t>
+        </is>
+      </c>
+      <c r="B264" t="n">
+        <v>-0.1196967253938783</v>
+      </c>
+      <c r="C264" t="n">
+        <v>-0.002068458115869996</v>
+      </c>
+      <c r="D264" t="n">
+        <v>0.009903506523361192</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:30:17</t>
+        </is>
+      </c>
+      <c r="B265" t="n">
+        <v>-0.1200741113442928</v>
+      </c>
+      <c r="C265" t="n">
+        <v>-0.001968900838147995</v>
+      </c>
+      <c r="D265" t="n">
+        <v>0.009456560738626149</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:30:18</t>
+        </is>
+      </c>
+      <c r="B266" t="n">
+        <v>-0.1197487786284182</v>
+      </c>
+      <c r="C266" t="n">
+        <v>-0.001942379224763994</v>
+      </c>
+      <c r="D266" t="n">
+        <v>0.009303901591948088</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:30:19</t>
+        </is>
+      </c>
+      <c r="B267" t="n">
+        <v>-0.1197878185543232</v>
+      </c>
+      <c r="C267" t="n">
+        <v>-0.002152527581195997</v>
+      </c>
+      <c r="D267" t="n">
+        <v>0.01031386333317929</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:30:20</t>
+        </is>
+      </c>
+      <c r="B268" t="n">
+        <v>-0.1208646698438679</v>
+      </c>
+      <c r="C268" t="n">
+        <v>-0.001925119930557995</v>
+      </c>
+      <c r="D268" t="n">
+        <v>0.009307159392669679</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:30:21</t>
+        </is>
+      </c>
+      <c r="B269" t="n">
+        <v>-0.1211737359239487</v>
+      </c>
+      <c r="C269" t="n">
+        <v>-0.001908569229075996</v>
+      </c>
+      <c r="D269" t="n">
+        <v>0.009250738550265165</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:30:22</t>
+        </is>
+      </c>
+      <c r="B270" t="n">
+        <v>-0.1220716542197624</v>
+      </c>
+      <c r="C270" t="n">
+        <v>-0.001968698383083996</v>
+      </c>
+      <c r="D270" t="n">
+        <v>0.009612890731313396</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:30:23</t>
+        </is>
+      </c>
+      <c r="B271" t="n">
+        <v>-0.1215771484916331</v>
+      </c>
+      <c r="C271" t="n">
+        <v>-0.001928915963007995</v>
+      </c>
+      <c r="D271" t="n">
+        <v>0.009380484098500182</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:30:24</t>
+        </is>
+      </c>
+      <c r="B272" t="n">
+        <v>-0.121681254960713</v>
+      </c>
+      <c r="C272" t="n">
+        <v>-0.001945871574617996</v>
+      </c>
+      <c r="D272" t="n">
+        <v>0.009471043807675853</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:30:25</t>
+        </is>
+      </c>
+      <c r="B273" t="n">
+        <v>-0.1226019465466379</v>
+      </c>
+      <c r="C273" t="n">
+        <v>-0.001862207019419996</v>
+      </c>
+      <c r="D273" t="n">
+        <v>0.009132408218148171</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:30:26</t>
+        </is>
+      </c>
+      <c r="B274" t="n">
+        <v>-0.1199537382394192</v>
+      </c>
+      <c r="C274" t="n">
+        <v>-0.002046896651553995</v>
+      </c>
+      <c r="D274" t="n">
+        <v>0.009821316205746061</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:30:27</t>
+        </is>
+      </c>
+      <c r="B275" t="n">
+        <v>-0.1219935743679525</v>
+      </c>
+      <c r="C275" t="n">
+        <v>-0.002187552307267995</v>
+      </c>
+      <c r="D275" t="n">
+        <v>0.01067469300321937</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:30:28</t>
+        </is>
+      </c>
+      <c r="B276" t="n">
+        <v>-0.1206044036711683</v>
+      </c>
+      <c r="C276" t="n">
+        <v>-0.002062131395119996</v>
+      </c>
+      <c r="D276" t="n">
+        <v>0.009948085088001657</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:30:29</t>
+        </is>
+      </c>
+      <c r="B277" t="n">
+        <v>-0.121310375664616</v>
+      </c>
+      <c r="C277" t="n">
+        <v>-0.001907455726223996</v>
+      </c>
+      <c r="D277" t="n">
+        <v>0.009255766828474234</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:30:30</t>
+        </is>
+      </c>
+      <c r="B278" t="n">
+        <v>-0.1200903779800865</v>
+      </c>
+      <c r="C278" t="n">
+        <v>-0.002034597506415997</v>
+      </c>
+      <c r="D278" t="n">
+        <v>0.009773423343313541</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:30:31</t>
+        </is>
+      </c>
+      <c r="B279" t="n">
+        <v>-0.1205978970168508</v>
+      </c>
+      <c r="C279" t="n">
+        <v>-0.002062080781353996</v>
+      </c>
+      <c r="D279" t="n">
+        <v>0.009947304228406255</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:30:32</t>
+        </is>
+      </c>
+      <c r="B280" t="n">
+        <v>-0.1207573100476293</v>
+      </c>
+      <c r="C280" t="n">
+        <v>-0.001983123306393996</v>
+      </c>
+      <c r="D280" t="n">
+        <v>0.009579065438915979</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:30:33</t>
+        </is>
+      </c>
+      <c r="B281" t="n">
+        <v>-0.1203994440601673</v>
+      </c>
+      <c r="C281" t="n">
+        <v>-0.001964345599207996</v>
+      </c>
+      <c r="D281" t="n">
+        <v>0.009460244723467156</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:30:34</t>
+        </is>
+      </c>
+      <c r="B282" t="n">
+        <v>-0.1197943252086407</v>
+      </c>
+      <c r="C282" t="n">
+        <v>-0.001825512039069996</v>
+      </c>
+      <c r="D282" t="n">
+        <v>0.008747439315225593</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:30:35</t>
+        </is>
+      </c>
+      <c r="B283" t="n">
+        <v>-0.1205523504366283</v>
+      </c>
+      <c r="C283" t="n">
+        <v>-0.002044922714679996</v>
+      </c>
+      <c r="D283" t="n">
+        <v>0.009860809588636969</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:30:36</t>
+        </is>
+      </c>
+      <c r="B284" t="n">
+        <v>-0.1204937905477709</v>
+      </c>
+      <c r="C284" t="n">
+        <v>-0.001753589877583996</v>
+      </c>
+      <c r="D284" t="n">
+        <v>0.008451867656651889</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:30:37</t>
+        </is>
+      </c>
+      <c r="B285" t="n">
+        <v>-0.1194397125483374</v>
+      </c>
+      <c r="C285" t="n">
+        <v>-0.002023513091661996</v>
+      </c>
+      <c r="D285" t="n">
+        <v>0.009667512880236253</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:30:38</t>
+        </is>
+      </c>
+      <c r="B286" t="n">
+        <v>-0.1209980562573764</v>
+      </c>
+      <c r="C286" t="n">
+        <v>-0.001985755222225996</v>
+      </c>
+      <c r="D286" t="n">
+        <v>0.009610900883691207</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:30:39</t>
+        </is>
+      </c>
+      <c r="B287" t="n">
+        <v>-0.1216519750162843</v>
+      </c>
+      <c r="C287" t="n">
+        <v>-0.002059094569159996</v>
+      </c>
+      <c r="D287" t="n">
+        <v>0.01001971684334474</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:30:40</t>
+        </is>
+      </c>
+      <c r="B288" t="n">
+        <v>-0.1190720865793992</v>
+      </c>
+      <c r="C288" t="n">
+        <v>-0.002046491741425996</v>
+      </c>
+      <c r="D288" t="n">
+        <v>0.009747201672764065</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:30:41</t>
+        </is>
+      </c>
+      <c r="B289" t="n">
+        <v>-0.1177187024813611</v>
+      </c>
+      <c r="C289" t="n">
+        <v>-0.001913478764377996</v>
+      </c>
+      <c r="D289" t="n">
+        <v>0.00901008949472863</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:30:42</t>
+        </is>
+      </c>
+      <c r="B290" t="n">
+        <v>-0.1179301687466796</v>
+      </c>
+      <c r="C290" t="n">
+        <v>-0.001976594130579996</v>
+      </c>
+      <c r="D290" t="n">
+        <v>0.009324003174519814</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:30:43</t>
+        </is>
+      </c>
+      <c r="B291" t="n">
+        <v>-0.1194266992397024</v>
+      </c>
+      <c r="C291" t="n">
+        <v>-0.002047453402979996</v>
+      </c>
+      <c r="D291" t="n">
+        <v>0.009780824070599888</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:30:44</t>
+        </is>
+      </c>
+      <c r="B292" t="n">
+        <v>-0.1194039259495912</v>
+      </c>
+      <c r="C292" t="n">
+        <v>-0.002022652657639996</v>
+      </c>
+      <c r="D292" t="n">
+        <v>0.009660506726183595</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:30:45</t>
+        </is>
+      </c>
+      <c r="B293" t="n">
+        <v>-0.1196576854679733</v>
+      </c>
+      <c r="C293" t="n">
+        <v>-0.002090070193951997</v>
+      </c>
+      <c r="D293" t="n">
+        <v>0.01000371847495576</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:30:46</t>
+        </is>
+      </c>
+      <c r="B294" t="n">
+        <v>-0.1185352875982062</v>
+      </c>
+      <c r="C294" t="n">
+        <v>-0.001958626243649996</v>
+      </c>
+      <c r="D294" t="n">
+        <v>0.009286653003537863</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:30:47</t>
+        </is>
+      </c>
+      <c r="B295" t="n">
+        <v>-0.1176601425925037</v>
+      </c>
+      <c r="C295" t="n">
+        <v>-0.001845048952745997</v>
+      </c>
+      <c r="D295" t="n">
+        <v>0.008683548914809743</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
